--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.866376609482634</v>
+        <v>13.866376616839368</v>
       </c>
       <c r="C2">
-        <v>24.943650496893291</v>
+        <v>24.943650448613912</v>
       </c>
       <c r="D2">
-        <v>32.969749103055143</v>
+        <v>32.969749083981462</v>
       </c>
       <c r="E2">
-        <v>46.803592517715472</v>
+        <v>46.803592538478924</v>
       </c>
       <c r="F2">
-        <v>30.200089428074712</v>
+        <v>30.200089428676456</v>
       </c>
       <c r="G2">
-        <v>13.521181568869292</v>
+        <v>13.521181515241249</v>
       </c>
       <c r="H2">
-        <v>29.811951177122797</v>
+        <v>29.811951054176962</v>
       </c>
       <c r="I2">
-        <v>27.345218663204658</v>
+        <v>27.345218673266796</v>
       </c>
       <c r="J2">
-        <v>33.704973412647618</v>
+        <v>33.704973421445871</v>
       </c>
       <c r="K2">
-        <v>13.147579362133543</v>
+        <v>13.147579335074639</v>
       </c>
       <c r="L2">
-        <v>5.1251373335619119</v>
+        <v>5.1251372177268593</v>
       </c>
       <c r="M2">
-        <v>-14.332472635149562</v>
+        <v>-14.332472732928551</v>
       </c>
       <c r="N2">
-        <v>30.327346140919666</v>
+        <v>30.32734608627911</v>
       </c>
       <c r="O2">
-        <v>39.436142699901978</v>
+        <v>39.436142782633425</v>
       </c>
       <c r="P2">
-        <v>42.004335957255307</v>
+        <v>42.00433588643849</v>
       </c>
       <c r="Q2">
-        <v>5.3869871951213986</v>
+        <v>5.3869871773970699</v>
       </c>
       <c r="R2">
-        <v>-12.468736490442248</v>
+        <v>-12.468736369242462</v>
       </c>
       <c r="S2">
-        <v>54.051100224175975</v>
+        <v>54.05109979538544</v>
       </c>
       <c r="T2">
-        <v>55.220749628639751</v>
+        <v>55.220749650492408</v>
       </c>
       <c r="U2">
-        <v>10.468098325962446</v>
+        <v>10.468098278553438</v>
       </c>
       <c r="V2">
-        <v>25.759756950443151</v>
+        <v>25.759756944630357</v>
       </c>
       <c r="W2">
-        <v>-8.3545088541245338</v>
+        <v>-8.3545091679577279</v>
       </c>
       <c r="X2">
-        <v>13.377028560383602</v>
+        <v>13.377028580929393</v>
       </c>
       <c r="Y2">
-        <v>70.570961868914452</v>
+        <v>70.57096181137409</v>
       </c>
       <c r="Z2">
-        <v>39.40278202277652</v>
+        <v>39.40278194804111</v>
       </c>
       <c r="AA2">
-        <v>49.851786853985566</v>
+        <v>49.85178701299732</v>
       </c>
       <c r="AB2">
-        <v>45.841607286495368</v>
+        <v>45.841607175205681</v>
       </c>
       <c r="AC2">
-        <v>14.601889997134707</v>
+        <v>14.601889906367148</v>
       </c>
       <c r="AD2">
-        <v>61.137865458495256</v>
+        <v>61.137865359650789</v>
       </c>
       <c r="AE2">
-        <v>26.910420814574891</v>
+        <v>26.910420809269713</v>
       </c>
       <c r="AF2">
-        <v>39.453491348201901</v>
+        <v>39.453491256408732</v>
       </c>
       <c r="AG2">
-        <v>40.721391759286377</v>
+        <v>40.721391646357532</v>
       </c>
       <c r="AH2">
-        <v>47.573424838775438</v>
+        <v>47.573424769523761</v>
       </c>
       <c r="AI2">
-        <v>44.995783629660295</v>
+        <v>44.995783252422342</v>
       </c>
       <c r="AJ2">
-        <v>32.731845132807699</v>
+        <v>32.731845034509519</v>
       </c>
       <c r="AK2">
-        <v>32.117661418173768</v>
+        <v>32.117661374081173</v>
       </c>
       <c r="AL2">
-        <v>6.0735817672078962</v>
+        <v>6.0735816682413351</v>
       </c>
       <c r="AM2">
-        <v>48.24595811789046</v>
+        <v>48.245957823687554</v>
       </c>
       <c r="AN2">
-        <v>41.475603956156718</v>
+        <v>41.475603834605494</v>
       </c>
       <c r="AO2">
-        <v>64.72247683280068</v>
+        <v>64.722477158260787</v>
       </c>
       <c r="AP2">
-        <v>49.362339485372111</v>
+        <v>49.362339392372974</v>
       </c>
       <c r="AQ2">
-        <v>12.837924223889235</v>
+        <v>12.837923999517505</v>
       </c>
       <c r="AR2">
-        <v>58.756837244837371</v>
+        <v>58.756837366693361</v>
       </c>
       <c r="AS2">
-        <v>56.74993700274883</v>
+        <v>56.749936827701475</v>
       </c>
       <c r="AT2">
-        <v>38.71136841434992</v>
+        <v>38.711368709009221</v>
       </c>
       <c r="AU2">
-        <v>45.906283064385654</v>
+        <v>45.906282870330344</v>
       </c>
       <c r="AV2">
-        <v>43.619323715005343</v>
+        <v>43.619323806389254</v>
       </c>
       <c r="AW2">
-        <v>25.259030778991637</v>
+        <v>25.259030438523034</v>
       </c>
       <c r="AX2">
-        <v>53.748884238760716</v>
+        <v>53.748884090453117</v>
       </c>
       <c r="AY2">
-        <v>72.051399370821699</v>
+        <v>72.051399240237686</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.181084357716493</v>
+        <v>21.1810840239289</v>
       </c>
       <c r="C3">
-        <v>22.979949553087636</v>
+        <v>22.979949531125364</v>
       </c>
       <c r="D3">
-        <v>53.765008528954624</v>
+        <v>53.765008247925039</v>
       </c>
       <c r="E3">
-        <v>47.818303719209382</v>
+        <v>47.818303672092384</v>
       </c>
       <c r="F3">
-        <v>22.175677535462697</v>
+        <v>22.175677468048395</v>
       </c>
       <c r="G3">
-        <v>39.224109056048803</v>
+        <v>39.224109007223895</v>
       </c>
       <c r="H3">
-        <v>5.4595122024391989</v>
+        <v>5.4595122313713675</v>
       </c>
       <c r="I3">
-        <v>15.540375828750856</v>
+        <v>15.540375786150362</v>
       </c>
       <c r="J3">
-        <v>43.862538336827441</v>
+        <v>43.862538226314747</v>
       </c>
       <c r="K3">
-        <v>109.63933676200641</v>
+        <v>109.63933673761943</v>
       </c>
       <c r="L3">
-        <v>42.824599861422435</v>
+        <v>42.824599794695814</v>
       </c>
       <c r="M3">
-        <v>8.876177081826226</v>
+        <v>8.8750572593776891</v>
       </c>
       <c r="N3">
-        <v>31.338697519303661</v>
+        <v>31.338697509006231</v>
       </c>
       <c r="O3">
-        <v>-43.181887385762415</v>
+        <v>-43.18188739632469</v>
       </c>
       <c r="P3">
-        <v>47.361298038425744</v>
+        <v>47.361297926170757</v>
       </c>
       <c r="Q3">
-        <v>26.351867042935616</v>
+        <v>26.351866929274358</v>
       </c>
       <c r="R3">
-        <v>10.459134292945977</v>
+        <v>10.459134016677968</v>
       </c>
       <c r="S3">
-        <v>56.587986738844783</v>
+        <v>56.58798664142801</v>
       </c>
       <c r="T3">
-        <v>49.760647615621565</v>
+        <v>49.760647539197585</v>
       </c>
       <c r="U3">
-        <v>39.071799590933004</v>
+        <v>39.071799483709377</v>
       </c>
       <c r="V3">
-        <v>41.53077774940342</v>
+        <v>41.530777775885902</v>
       </c>
       <c r="W3">
-        <v>8.9550783396380673</v>
+        <v>8.9550781618658082</v>
       </c>
       <c r="X3">
-        <v>-2.1239953148324937</v>
+        <v>-2.1239953641873308</v>
       </c>
       <c r="Y3">
-        <v>83.898408427772409</v>
+        <v>83.898408250990244</v>
       </c>
       <c r="Z3">
-        <v>57.371740794164481</v>
+        <v>57.371740706688847</v>
       </c>
       <c r="AA3">
-        <v>46.32181284980927</v>
+        <v>46.321812881935315</v>
       </c>
       <c r="AB3">
-        <v>45.150107357637793</v>
+        <v>45.150107255684787</v>
       </c>
       <c r="AC3">
-        <v>46.549836170143692</v>
+        <v>46.549835973103541</v>
       </c>
       <c r="AD3">
-        <v>56.02110281634296</v>
+        <v>56.02110257902342</v>
       </c>
       <c r="AE3">
-        <v>44.294660819198519</v>
+        <v>44.294660593138993</v>
       </c>
       <c r="AF3">
-        <v>35.027943868912295</v>
+        <v>35.027943723500627</v>
       </c>
       <c r="AG3">
-        <v>29.094768574493017</v>
+        <v>29.094768481995033</v>
       </c>
       <c r="AH3">
-        <v>24.088784403711287</v>
+        <v>24.088784334198753</v>
       </c>
       <c r="AI3">
-        <v>83.117240433433153</v>
+        <v>83.117238407560606</v>
       </c>
       <c r="AJ3">
-        <v>52.244872822438495</v>
+        <v>52.244872663640542</v>
       </c>
       <c r="AK3">
-        <v>35.773105253666472</v>
+        <v>35.773104977790879</v>
       </c>
       <c r="AL3">
-        <v>36.444738912205139</v>
+        <v>36.444738744150698</v>
       </c>
       <c r="AM3">
-        <v>50.442667001788102</v>
+        <v>50.442666772202337</v>
       </c>
       <c r="AN3">
-        <v>-5.790850729659927</v>
+        <v>-5.7908507828971372</v>
       </c>
       <c r="AO3">
-        <v>57.18392100940212</v>
+        <v>57.183920616776241</v>
       </c>
       <c r="AP3">
-        <v>24.155066066796852</v>
+        <v>24.155065960316101</v>
       </c>
       <c r="AQ3">
-        <v>36.226972579479948</v>
+        <v>36.226972456088049</v>
       </c>
       <c r="AR3">
-        <v>66.257768039506999</v>
+        <v>66.257768156320125</v>
       </c>
       <c r="AS3">
-        <v>38.426708295674281</v>
+        <v>38.426708329249514</v>
       </c>
       <c r="AT3">
-        <v>60.77305244482082</v>
+        <v>60.773052185739232</v>
       </c>
       <c r="AU3">
-        <v>26.902694609239536</v>
+        <v>26.902694374053347</v>
       </c>
       <c r="AV3">
-        <v>33.083132649972285</v>
+        <v>33.083132400370822</v>
       </c>
       <c r="AW3">
-        <v>28.101046831901144</v>
+        <v>28.101044892803351</v>
       </c>
       <c r="AX3">
-        <v>30.76322670427794</v>
+        <v>30.763226193138365</v>
       </c>
       <c r="AY3">
-        <v>82.086440721590208</v>
+        <v>82.086440586585724</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.866376616839368</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>24.943650448613912</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>32.969749083981462</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>46.803592538478924</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>30.200089428676456</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.521181515241249</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>29.811951054176962</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>27.345218673266796</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>33.704973421445871</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.147579335074639</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.1251372177268593</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-14.332472732928551</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>30.32734608627911</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>39.436142782633425</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>42.00433588643849</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>5.3869871773970699</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-12.468736369242462</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>54.05109979538544</v>
+        <v>32.275851148617548</v>
       </c>
       <c r="T2">
         <v>55.220749650492408</v>
@@ -588,55 +477,55 @@
         <v>39.40278194804111</v>
       </c>
       <c r="AA2">
-        <v>49.85178701299732</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>45.841607175205681</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>14.601889906367148</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>61.137865359650789</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>26.910420809269713</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>39.453491256408732</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>40.721391646357532</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>47.573424769523761</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>44.995783252422342</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>32.731845034509519</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>32.117661374081173</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.0735816682413351</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>48.245957823687554</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>41.475603834605494</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>64.722477158260787</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>49.362339392372974</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>12.837923999517505</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>58.756837366693361</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>21.1810840239289</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>22.979949531125364</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>53.765008247925039</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>47.818303672092384</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>22.175677468048395</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>39.224109007223895</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.4595122313713675</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15.540375786150362</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>43.862538226314747</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>109.63933673761943</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>42.824599794695814</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.8750572593776891</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>31.338697509006231</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-43.18188739632469</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>47.361297926170757</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>26.351866929274358</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>10.459134016677968</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>56.58798664142801</v>
@@ -743,55 +629,55 @@
         <v>57.371740706688847</v>
       </c>
       <c r="AA3">
-        <v>46.321812881935315</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>45.150107255684787</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>46.549835973103541</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>56.02110257902342</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>44.294660593138993</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>35.027943723500627</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>29.094768481995033</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>24.088784334198753</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>83.117238407560606</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>52.244872663640542</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>35.773104977790879</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>36.444738744150698</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>50.442666772202337</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-5.7908507828971372</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>57.183920616776241</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>24.155065960316101</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>36.226972456088049</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>66.257768156320125</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.5389019256157663</v>
+        <v>39.737113767944933</v>
       </c>
       <c r="C2">
-        <v>16.803318486524173</v>
+        <v>39.71845511051913</v>
       </c>
       <c r="D2">
-        <v>32.782175994833452</v>
+        <v>42.885043917306568</v>
       </c>
       <c r="E2">
-        <v>17.061282178289424</v>
+        <v>35.739962095558155</v>
       </c>
       <c r="F2">
         <v>26.877360063640182</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.750860220118032</v>
+        <v>57.342222431918422</v>
       </c>
       <c r="C3">
-        <v>24.947371725934097</v>
+        <v>43.174736418035501</v>
       </c>
       <c r="D3">
-        <v>46.370479144722424</v>
+        <v>45.329749470807954</v>
       </c>
       <c r="E3">
-        <v>57.463294770590444</v>
+        <v>17.073207678383952</v>
       </c>
       <c r="F3">
         <v>21.217463785435704</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.5389019256157663</v>
+        <v>14.336693754819585</v>
       </c>
       <c r="C2">
-        <v>16.803318486524173</v>
+        <v>39.737113767944933</v>
       </c>
       <c r="D2">
-        <v>32.782175994833452</v>
+        <v>50.486844967947228</v>
       </c>
       <c r="E2">
-        <v>17.061282178289424</v>
+        <v>42.885043917306568</v>
       </c>
       <c r="F2">
         <v>26.877360063640182</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.750860220118032</v>
+        <v>30.333193684649491</v>
       </c>
       <c r="C3">
-        <v>24.947371725934097</v>
+        <v>57.342222431918422</v>
       </c>
       <c r="D3">
-        <v>46.370479144722424</v>
+        <v>67.26811684215393</v>
       </c>
       <c r="E3">
-        <v>59.119514168031159</v>
+        <v>45.329749470807954</v>
       </c>
       <c r="F3">
         <v>21.217463785435704</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>8.5389019390308647</v>
+      </c>
+      <c r="C2">
+        <v>16.80331802766862</v>
+      </c>
+      <c r="D2">
+        <v>32.78217595504421</v>
+      </c>
+      <c r="E2">
+        <v>17.061282218145188</v>
+      </c>
+      <c r="F2">
+        <v>26.877360070739144</v>
+      </c>
+      <c r="G2">
+        <v>29.381362001111412</v>
+      </c>
+      <c r="H2">
+        <v>14.947215333281012</v>
+      </c>
+      <c r="I2">
+        <v>10.409303950068024</v>
+      </c>
+      <c r="J2">
+        <v>27.048679481925021</v>
+      </c>
+      <c r="K2">
+        <v>12.884861333551015</v>
+      </c>
+      <c r="L2">
+        <v>22.818546313125537</v>
+      </c>
+      <c r="M2">
+        <v>21.512628175743238</v>
+      </c>
+      <c r="N2">
         <v>14.336693754819585</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>39.737113767944933</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>11.284944278866407</v>
+      </c>
+      <c r="Q2">
+        <v>19.098131003893069</v>
+      </c>
+      <c r="R2">
+        <v>39.71845511051913</v>
+      </c>
+      <c r="T2">
+        <v>14.93108984034461</v>
+      </c>
+      <c r="U2">
+        <v>43.702258892982009</v>
+      </c>
+      <c r="V2">
+        <v>37.274790688686274</v>
+      </c>
+      <c r="W2">
+        <v>33.357104026660132</v>
+      </c>
+      <c r="X2">
+        <v>21.948280934934782</v>
+      </c>
+      <c r="Y2">
+        <v>44.784920123028265</v>
+      </c>
+      <c r="Z2">
+        <v>68.065144635809091</v>
+      </c>
+      <c r="AA2">
+        <v>48.309001432324671</v>
+      </c>
+      <c r="AB2">
+        <v>61.131171529585849</v>
+      </c>
+      <c r="AC2">
+        <v>30.978291276096993</v>
+      </c>
+      <c r="AD2">
+        <v>44.587002608457972</v>
+      </c>
+      <c r="AE2">
+        <v>21.722797724206959</v>
+      </c>
+      <c r="AF2">
+        <v>36.644869511202323</v>
+      </c>
+      <c r="AG2">
+        <v>30.220287906625661</v>
+      </c>
+      <c r="AH2">
+        <v>41.797995723622684</v>
+      </c>
+      <c r="AI2">
+        <v>64.169545377364713</v>
+      </c>
+      <c r="AJ2">
+        <v>30.420743021177127</v>
+      </c>
+      <c r="AK2">
+        <v>27.564907744524064</v>
+      </c>
+      <c r="AL2">
+        <v>26.347639569491101</v>
+      </c>
+      <c r="AM2">
         <v>50.486844967947228</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>42.885043917306568</v>
       </c>
-      <c r="F2">
-        <v>26.877360063640182</v>
-      </c>
-      <c r="G2">
-        <v>29.381362553652153</v>
-      </c>
-      <c r="H2">
-        <v>14.94721556363689</v>
-      </c>
-      <c r="I2">
-        <v>10.409303883285343</v>
-      </c>
-      <c r="J2">
-        <v>27.04867946702786</v>
-      </c>
-      <c r="K2">
-        <v>12.884861397188457</v>
-      </c>
-      <c r="L2">
-        <v>22.818547899251801</v>
-      </c>
-      <c r="M2">
-        <v>21.512628305943995</v>
-      </c>
-      <c r="N2">
-        <v>14.336693980544716</v>
-      </c>
-      <c r="O2">
-        <v>39.737113596047294</v>
-      </c>
-      <c r="P2">
-        <v>11.284944697953476</v>
-      </c>
-      <c r="Q2">
-        <v>19.098131072913013</v>
-      </c>
-      <c r="R2">
-        <v>39.71845471322969</v>
-      </c>
-      <c r="T2">
-        <v>14.931089734824846</v>
-      </c>
-      <c r="U2">
-        <v>43.702259101394603</v>
-      </c>
-      <c r="V2">
-        <v>37.274790746563305</v>
-      </c>
-      <c r="W2">
-        <v>33.357104520101466</v>
-      </c>
-      <c r="X2">
-        <v>21.94828088139402</v>
-      </c>
-      <c r="Y2">
-        <v>44.784920318293679</v>
-      </c>
-      <c r="Z2">
-        <v>68.065145157018407</v>
-      </c>
-      <c r="AA2">
-        <v>48.309001170227262</v>
-      </c>
-      <c r="AB2">
-        <v>61.131171763347339</v>
-      </c>
-      <c r="AC2">
-        <v>30.978291470522578</v>
-      </c>
-      <c r="AD2">
-        <v>44.587002789553758</v>
-      </c>
-      <c r="AE2">
-        <v>21.722797734229939</v>
-      </c>
-      <c r="AF2">
-        <v>36.6448698111749</v>
-      </c>
-      <c r="AG2">
-        <v>30.22028811833955</v>
-      </c>
-      <c r="AH2">
-        <v>41.797995919543254</v>
-      </c>
-      <c r="AI2">
-        <v>64.169546302284317</v>
-      </c>
-      <c r="AJ2">
-        <v>30.420743207208449</v>
-      </c>
-      <c r="AK2">
-        <v>27.564907833025259</v>
-      </c>
-      <c r="AL2">
-        <v>26.34763984738133</v>
-      </c>
-      <c r="AM2">
-        <v>50.486845632615399</v>
-      </c>
-      <c r="AN2">
-        <v>42.885044285721328</v>
-      </c>
       <c r="AO2">
-        <v>49.029916526419704</v>
+        <v>49.029917487885456</v>
       </c>
       <c r="AP2">
-        <v>39.632675474570874</v>
+        <v>39.632675066084886</v>
       </c>
       <c r="AQ2">
-        <v>35.739962611482454</v>
+        <v>35.739962095558155</v>
       </c>
       <c r="AR2">
-        <v>19.531629499878765</v>
+        <v>19.531629976114488</v>
       </c>
       <c r="AS2">
-        <v>47.650657909115154</v>
+        <v>47.650657563243392</v>
       </c>
       <c r="AT2">
-        <v>66.308809071546662</v>
+        <v>66.308810257413484</v>
       </c>
       <c r="AU2">
-        <v>18.571299890700828</v>
+        <v>18.571298885224216</v>
       </c>
       <c r="AV2">
-        <v>63.519245680647899</v>
+        <v>63.519245812171846</v>
       </c>
       <c r="AW2">
-        <v>45.373530467987521</v>
+        <v>45.373529577033231</v>
       </c>
       <c r="AX2">
-        <v>49.033362410678713</v>
+        <v>49.033362073561989</v>
       </c>
       <c r="AY2">
-        <v>54.210992711046458</v>
+        <v>54.210992313625205</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>22.750859570493091</v>
+      </c>
+      <c r="C3">
+        <v>24.947371684081297</v>
+      </c>
+      <c r="D3">
+        <v>46.370478001994584</v>
+      </c>
+      <c r="E3">
+        <v>59.119513542835954</v>
+      </c>
+      <c r="F3">
+        <v>21.21746363717498</v>
+      </c>
+      <c r="G3">
+        <v>29.691499073951345</v>
+      </c>
+      <c r="H3">
+        <v>20.732732778504065</v>
+      </c>
+      <c r="I3">
+        <v>15.480859524455004</v>
+      </c>
+      <c r="J3">
+        <v>35.466985424993574</v>
+      </c>
+      <c r="K3">
+        <v>30.16067353237845</v>
+      </c>
+      <c r="L3">
+        <v>28.222291171567015</v>
+      </c>
+      <c r="M3">
+        <v>26.06982659668229</v>
+      </c>
+      <c r="N3">
         <v>30.333193684649491</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>57.342222431918422</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>53.896278489624407</v>
+      </c>
+      <c r="Q3">
+        <v>17.112737831821807</v>
+      </c>
+      <c r="R3">
+        <v>43.174736418035501</v>
+      </c>
+      <c r="S3">
+        <v>39.237653100394823</v>
+      </c>
+      <c r="T3">
+        <v>32.572074230185848</v>
+      </c>
+      <c r="U3">
+        <v>37.957329821082659</v>
+      </c>
+      <c r="V3">
+        <v>27.308343693105464</v>
+      </c>
+      <c r="W3">
+        <v>39.44947858273003</v>
+      </c>
+      <c r="X3">
+        <v>28.840736198548118</v>
+      </c>
+      <c r="Y3">
+        <v>68.751702308827973</v>
+      </c>
+      <c r="Z3">
+        <v>68.049670717286872</v>
+      </c>
+      <c r="AA3">
+        <v>38.692358767215609</v>
+      </c>
+      <c r="AB3">
+        <v>39.083881652480045</v>
+      </c>
+      <c r="AC3">
+        <v>30.842414710403343</v>
+      </c>
+      <c r="AD3">
+        <v>42.054154690048279</v>
+      </c>
+      <c r="AE3">
+        <v>28.054288833952906</v>
+      </c>
+      <c r="AF3">
+        <v>39.31688754028842</v>
+      </c>
+      <c r="AG3">
+        <v>30.453344028132346</v>
+      </c>
+      <c r="AH3">
+        <v>29.889288246411557</v>
+      </c>
+      <c r="AI3">
+        <v>39.367798318837252</v>
+      </c>
+      <c r="AJ3">
+        <v>46.22814874453983</v>
+      </c>
+      <c r="AK3">
+        <v>25.726772961015275</v>
+      </c>
+      <c r="AL3">
+        <v>41.488098253792394</v>
+      </c>
+      <c r="AM3">
         <v>67.26811684215393</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>45.329749470807954</v>
       </c>
-      <c r="F3">
-        <v>21.217463785435704</v>
-      </c>
-      <c r="G3">
-        <v>29.691499199637384</v>
-      </c>
-      <c r="H3">
-        <v>20.732732698734981</v>
-      </c>
-      <c r="I3">
-        <v>15.480859712581388</v>
-      </c>
-      <c r="J3">
-        <v>35.466985706733794</v>
-      </c>
-      <c r="K3">
-        <v>30.160673559787583</v>
-      </c>
-      <c r="L3">
-        <v>28.222291370001649</v>
-      </c>
-      <c r="M3">
-        <v>26.072991913126188</v>
-      </c>
-      <c r="N3">
-        <v>30.333193715840395</v>
-      </c>
-      <c r="O3">
-        <v>57.342222471033054</v>
-      </c>
-      <c r="P3">
-        <v>53.896278843238868</v>
-      </c>
-      <c r="Q3">
-        <v>17.112738135193769</v>
-      </c>
-      <c r="R3">
-        <v>43.174737086520857</v>
-      </c>
-      <c r="S3">
-        <v>39.23765354394515</v>
-      </c>
-      <c r="T3">
-        <v>32.57207455020945</v>
-      </c>
-      <c r="U3">
-        <v>37.95733043655656</v>
-      </c>
-      <c r="V3">
-        <v>27.308340987454997</v>
-      </c>
-      <c r="W3">
-        <v>39.449478634693143</v>
-      </c>
-      <c r="X3">
-        <v>28.840736396764662</v>
-      </c>
-      <c r="Y3">
-        <v>68.751703028508658</v>
-      </c>
-      <c r="Z3">
-        <v>68.049671180026522</v>
-      </c>
-      <c r="AA3">
-        <v>38.692358711678274</v>
-      </c>
-      <c r="AB3">
-        <v>39.083881835774754</v>
-      </c>
-      <c r="AC3">
-        <v>30.842415191332513</v>
-      </c>
-      <c r="AD3">
-        <v>42.054155192593484</v>
-      </c>
-      <c r="AE3">
-        <v>28.054289258572616</v>
-      </c>
-      <c r="AF3">
-        <v>39.316887901083177</v>
-      </c>
-      <c r="AG3">
-        <v>30.453344190349373</v>
-      </c>
-      <c r="AH3">
-        <v>29.889288389032881</v>
-      </c>
-      <c r="AI3">
-        <v>39.367799143637328</v>
-      </c>
-      <c r="AJ3">
-        <v>46.22814906633895</v>
-      </c>
-      <c r="AK3">
-        <v>25.726773497892225</v>
-      </c>
-      <c r="AL3">
-        <v>41.488098677491678</v>
-      </c>
-      <c r="AM3">
-        <v>67.268117293130985</v>
-      </c>
-      <c r="AN3">
-        <v>45.329749548532426</v>
-      </c>
       <c r="AO3">
-        <v>64.652891666640983</v>
+        <v>64.65289068582311</v>
       </c>
       <c r="AP3">
-        <v>43.435034539875957</v>
+        <v>43.435034248935345</v>
       </c>
       <c r="AQ3">
-        <v>17.073207877200787</v>
+        <v>17.073207678383952</v>
       </c>
       <c r="AR3">
-        <v>26.415665046154245</v>
+        <v>26.415665658036268</v>
       </c>
       <c r="AS3">
-        <v>32.767897932966619</v>
+        <v>32.767898007689666</v>
       </c>
       <c r="AT3">
-        <v>60.437187185095432</v>
+        <v>60.437186442182366</v>
       </c>
       <c r="AU3">
-        <v>18.969294444114222</v>
+        <v>18.969293189234978</v>
       </c>
       <c r="AV3">
-        <v>45.742589007648789</v>
+        <v>45.742588575338985</v>
       </c>
       <c r="AW3">
-        <v>42.322120860900512</v>
+        <v>42.322116900458411</v>
       </c>
       <c r="AX3">
-        <v>37.756105655407936</v>
+        <v>37.756104374737909</v>
       </c>
       <c r="AY3">
-        <v>63.389969552112731</v>
+        <v>63.389969093328411</v>
       </c>
     </row>
   </sheetData>
